--- a/WorkBot/main/backend/ordering/OrderFiles/Webstaurant/Webstaurant_Bakery_20250412.xlsx
+++ b/WorkBot/main/backend/ordering/OrderFiles/Webstaurant/Webstaurant_Bakery_20250412.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,6 +498,187 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Spice - Za'atar Seasoning</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>249.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>249.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nuts - Pine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>122.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>244.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>409ML90266</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Choc Curls - Dark</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>113.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>340.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>500CTOUT160</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Java Box (160oz)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>189.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>245CCGR1914</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cake Board - 1/2 Sheet</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>37.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>37.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>433qlinerbl</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sheet Pan Liner - White</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>45.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>137.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>271241CUTC</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mop Head Cut (White)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>26.28</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
